--- a/src/main/java/dataStores/testData3.xlsx
+++ b/src/main/java/dataStores/testData3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>ZARA COAT 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -100,10 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,21 +410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -466,6 +468,69 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
